--- a/P1/wf_Meta/test_sheets/Book3.xlsx
+++ b/P1/wf_Meta/test_sheets/Book3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature_Program\Michael-Lozano-P1\P1\wf_Meta\Shoplists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature_Program\Michael-Lozano-P1\P1\wf_Meta\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CDF7C2-223B-4527-B39A-87F1E8A8CB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFD9D18-B5C7-46FE-BFAA-659328CCCD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24570" yWindow="-2865" windowWidth="21600" windowHeight="11295" xr2:uid="{0F41BA1A-36D6-497B-9F07-F6515F7059DD}"/>
+    <workbookView xWindow="31305" yWindow="-1515" windowWidth="21600" windowHeight="11295" xr2:uid="{0F41BA1A-36D6-497B-9F07-F6515F7059DD}"/>
   </bookViews>
   <sheets>
     <sheet name="PEGA" sheetId="1" r:id="rId1"/>
@@ -44,19 +44,19 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Veggie Spread</t>
-  </si>
-  <si>
-    <t>Steeleye Stout</t>
-  </si>
-  <si>
-    <t>Sirop d'erable</t>
-  </si>
-  <si>
-    <t>Sasquatch Ale</t>
-  </si>
-  <si>
-    <t>Rhonbrau Klosterbier</t>
+    <t>Genen Shouyu</t>
+  </si>
+  <si>
+    <t>Chef Anton's Gumbo Mix</t>
+  </si>
+  <si>
+    <t>Cote de Blaye</t>
+  </si>
+  <si>
+    <t>Guarana Fantastica</t>
+  </si>
+  <si>
+    <t>Grandma's Boysenberry Spread</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
